--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -582,7 +582,7 @@
         <v>1.56</v>
       </c>
       <c r="H2">
-        <v>0.1215384615384615</v>
+        <v>0.12</v>
       </c>
       <c r="I2">
         <v>0.99</v>
@@ -600,10 +600,10 @@
         <v>0.73</v>
       </c>
       <c r="N2">
-        <v>0.01545454545454545</v>
+        <v>0.02</v>
       </c>
       <c r="O2">
-        <v>0.06642857142857142</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P2">
         <v>0.73</v>
@@ -786,7 +786,7 @@
         <v>-1</v>
       </c>
       <c r="N5">
-        <v>0.01545454545454545</v>
+        <v>0.02</v>
       </c>
       <c r="O5">
         <v>0.01</v>
@@ -848,10 +848,10 @@
         <v>-0.22</v>
       </c>
       <c r="N6">
-        <v>0.01545454545454545</v>
+        <v>0.02</v>
       </c>
       <c r="O6">
-        <v>0.06642857142857142</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P6">
         <v>-0.22</v>
@@ -874,13 +874,13 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>6.122105263157896</v>
+        <v>6.12</v>
       </c>
       <c r="C7">
-        <v>6.122105263157896</v>
+        <v>6.12</v>
       </c>
       <c r="D7">
-        <v>6.122105263157896</v>
+        <v>6.12</v>
       </c>
       <c r="E7">
         <v>0.01</v>
@@ -910,10 +910,10 @@
         <v>-0.24</v>
       </c>
       <c r="N7">
-        <v>0.01545454545454545</v>
+        <v>0.02</v>
       </c>
       <c r="O7">
-        <v>0.06642857142857142</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P7">
         <v>-0.24</v>
@@ -945,13 +945,13 @@
         <v>0.2</v>
       </c>
       <c r="E8">
-        <v>0.4253333333333333</v>
+        <v>0.43</v>
       </c>
       <c r="F8">
         <v>0.2</v>
       </c>
       <c r="G8">
-        <v>2.323333333333333</v>
+        <v>2.32</v>
       </c>
       <c r="H8">
         <v>0.03</v>
@@ -972,10 +972,10 @@
         <v>0.01</v>
       </c>
       <c r="N8">
-        <v>0.01545454545454545</v>
+        <v>0.02</v>
       </c>
       <c r="O8">
-        <v>0.06642857142857142</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P8">
         <v>0.01</v>
@@ -987,10 +987,10 @@
         <v>0.01</v>
       </c>
       <c r="S8">
-        <v>-0.7127777777777777</v>
+        <v>-0.71</v>
       </c>
       <c r="T8">
-        <v>-0.7127777777777777</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1007,16 +1007,16 @@
         <v>0.39</v>
       </c>
       <c r="E9">
-        <v>0.4253333333333333</v>
+        <v>0.43</v>
       </c>
       <c r="F9">
         <v>0.39</v>
       </c>
       <c r="G9">
-        <v>2.323333333333333</v>
+        <v>2.32</v>
       </c>
       <c r="H9">
-        <v>0.1215384615384615</v>
+        <v>0.12</v>
       </c>
       <c r="I9">
         <v>0.13</v>
@@ -1034,10 +1034,10 @@
         <v>-9.130000000000001</v>
       </c>
       <c r="N9">
-        <v>0.01545454545454545</v>
+        <v>0.02</v>
       </c>
       <c r="O9">
-        <v>0.06642857142857142</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P9">
         <v>-9.130000000000001</v>
@@ -1069,7 +1069,7 @@
         <v>0.41</v>
       </c>
       <c r="E10">
-        <v>0.4253333333333333</v>
+        <v>0.43</v>
       </c>
       <c r="F10">
         <v>0.41</v>
@@ -1078,7 +1078,7 @@
         <v>0.05</v>
       </c>
       <c r="H10">
-        <v>0.1215384615384615</v>
+        <v>0.12</v>
       </c>
       <c r="I10">
         <v>0.13</v>
@@ -1131,7 +1131,7 @@
         <v>0.04</v>
       </c>
       <c r="E11">
-        <v>0.4253333333333333</v>
+        <v>0.43</v>
       </c>
       <c r="F11">
         <v>0.04</v>
@@ -1140,7 +1140,7 @@
         <v>0.06</v>
       </c>
       <c r="H11">
-        <v>0.1215384615384615</v>
+        <v>0.12</v>
       </c>
       <c r="I11">
         <v>0.1</v>
@@ -1158,10 +1158,10 @@
         <v>-0.15</v>
       </c>
       <c r="N11">
-        <v>0.01545454545454545</v>
+        <v>0.02</v>
       </c>
       <c r="O11">
-        <v>0.06642857142857142</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P11">
         <v>-0.15</v>
@@ -1193,7 +1193,7 @@
         <v>9.66</v>
       </c>
       <c r="E12">
-        <v>0.4253333333333333</v>
+        <v>0.43</v>
       </c>
       <c r="F12">
         <v>9.66</v>
@@ -1202,7 +1202,7 @@
         <v>1.05</v>
       </c>
       <c r="H12">
-        <v>0.1215384615384615</v>
+        <v>0.12</v>
       </c>
       <c r="I12">
         <v>1.07</v>
@@ -1226,7 +1226,7 @@
         <v>0.21</v>
       </c>
       <c r="P12">
-        <v>-1.142222222222222</v>
+        <v>-1.14</v>
       </c>
       <c r="Q12">
         <v>-0.5600000000000001</v>
@@ -1264,7 +1264,7 @@
         <v>1.94</v>
       </c>
       <c r="H13">
-        <v>0.1215384615384615</v>
+        <v>0.12</v>
       </c>
       <c r="I13">
         <v>0.06</v>
@@ -1326,7 +1326,7 @@
         <v>2.02</v>
       </c>
       <c r="H14">
-        <v>0.1215384615384615</v>
+        <v>0.12</v>
       </c>
       <c r="I14">
         <v>0.03</v>
@@ -1344,7 +1344,7 @@
         <v>1.45</v>
       </c>
       <c r="N14">
-        <v>0.01545454545454545</v>
+        <v>0.02</v>
       </c>
       <c r="O14">
         <v>0.1</v>
@@ -1592,25 +1592,25 @@
         <v>0.03</v>
       </c>
       <c r="N18">
-        <v>0.01545454545454545</v>
+        <v>0.02</v>
       </c>
       <c r="O18">
         <v>0.03</v>
       </c>
       <c r="P18">
-        <v>-1.142222222222222</v>
+        <v>-1.14</v>
       </c>
       <c r="Q18">
-        <v>-1.457368421052631</v>
+        <v>-1.46</v>
       </c>
       <c r="R18">
-        <v>-1.457368421052631</v>
+        <v>-1.46</v>
       </c>
       <c r="S18">
-        <v>-0.7127777777777777</v>
+        <v>-0.71</v>
       </c>
       <c r="T18">
-        <v>-0.7127777777777777</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="19" spans="1:20">
